--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,62</t>
+          <t>0,86; 7,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 7,29</t>
+          <t>-1,85; 7,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,03</t>
+          <t>0,48; 9,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,76; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 688,11</t>
+          <t>-14,63; 605,27</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,06</t>
+          <t>1,04; 5,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,65</t>
+          <t>1,46; 5,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,4</t>
+          <t>-1,17; 3,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,52; 898,62</t>
+          <t>32,73; 912,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,98; 712,91</t>
+          <t>57,62; 806,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 97,85</t>
+          <t>-19,82; 92,16</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,67</t>
+          <t>1,62; 4,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,51</t>
+          <t>1,07; 3,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,16</t>
+          <t>2,33; 5,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,97; 381,2</t>
+          <t>60,47; 418,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,38; 1041,9</t>
+          <t>88,51; 983,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,98; 305,31</t>
+          <t>71,08; 317,04</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,42</t>
+          <t>0,2; 3,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,99</t>
+          <t>0,89; 3,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,85</t>
+          <t>-0,0; 4,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 353,45</t>
+          <t>2,15; 331,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,53; 1029,67</t>
+          <t>26,52; 981,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 216,12</t>
+          <t>-0,28; 196,28</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,51</t>
+          <t>2,59; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,54</t>
+          <t>1,62; 4,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,71</t>
+          <t>2,7; 6,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>154,34; 1016,03</t>
+          <t>164,14; 1022,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>85,84; 834,02</t>
+          <t>82,79; 790,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>71,1; 310,68</t>
+          <t>80,3; 308,25</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,86</t>
+          <t>2,19; 3,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,43</t>
+          <t>1,9; 3,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,26</t>
+          <t>2,39; 4,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>129,26; 360,9</t>
+          <t>130,69; 355,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>154,55; 465,59</t>
+          <t>136,17; 434,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>66,97; 163,98</t>
+          <t>68,21; 168,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,57</t>
+          <t>0,92; 7,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 7,67</t>
+          <t>-1,98; 7,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-78,76; —</t>
+          <t>-67,8; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,09</t>
+          <t>1,16; 5,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,52</t>
+          <t>1,49; 5,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,73; 912,61</t>
+          <t>43,3; 929,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,62; 806,42</t>
+          <t>54,13; 750,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,82</t>
+          <t>1,46; 4,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,44</t>
+          <t>1,05; 3,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,47; 418,75</t>
+          <t>49,7; 393,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,51; 983,59</t>
+          <t>93,14; 1007,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,49</t>
+          <t>0,31; 3,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,96</t>
+          <t>0,8; 3,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 331,45</t>
+          <t>3,57; 441,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,52; 981,56</t>
+          <t>25,55; 1009,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,51</t>
+          <t>2,4; 5,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,59</t>
+          <t>1,62; 4,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>164,14; 1022,43</t>
+          <t>154,59; 1022,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,79; 790,12</t>
+          <t>74,73; 815,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,75</t>
+          <t>2,14; 3,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,34</t>
+          <t>1,9; 3,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>130,69; 355,95</t>
+          <t>126,46; 348,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>136,17; 434,88</t>
+          <t>147,68; 468,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,92</t>
+          <t>0,87; 7,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,63</t>
+          <t>-2,02; 7,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 9,37</t>
+          <t>0,42; 9,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,8; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 605,27</t>
+          <t>0,46; 688,11</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,06</t>
+          <t>1,02; 5,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,65</t>
+          <t>1,47; 5,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,11</t>
+          <t>-1,13; 3,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,3; 929,18</t>
+          <t>36,52; 898,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,13; 750,53</t>
+          <t>48,98; 712,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 92,16</t>
+          <t>-18,52; 97,85</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,73</t>
+          <t>1,64; 4,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,46</t>
+          <t>1,08; 3,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,12</t>
+          <t>2,26; 5,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,7; 393,73</t>
+          <t>59,97; 381,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,14; 1007,14</t>
+          <t>85,38; 1041,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,08; 317,04</t>
+          <t>71,98; 305,31</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,76</t>
+          <t>0,18; 3,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,79</t>
+          <t>0,94; 3,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,5</t>
+          <t>0,16; 4,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 441,29</t>
+          <t>-1,22; 353,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,55; 1009,91</t>
+          <t>38,53; 1029,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 196,28</t>
+          <t>3,12; 216,12</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,46</t>
+          <t>2,47; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,66</t>
+          <t>1,6; 4,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,6</t>
+          <t>2,64; 6,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>154,59; 1022,41</t>
+          <t>154,34; 1016,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,73; 815,78</t>
+          <t>85,84; 834,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,3; 308,25</t>
+          <t>71,1; 310,68</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,78</t>
+          <t>2,18; 3,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,39</t>
+          <t>1,91; 3,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,38</t>
+          <t>2,32; 4,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>126,46; 348,79</t>
+          <t>129,26; 360,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>147,68; 468,31</t>
+          <t>154,55; 465,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,21; 168,16</t>
+          <t>66,97; 163,98</t>
         </is>
       </c>
     </row>
